--- a/data/trans_dic/P39A2_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Clase-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.712813020101027</v>
+        <v>0.7128130201010268</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6565407141772546</v>
+        <v>0.6565407141772545</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.6865310158101036</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6624548117160578</v>
+        <v>0.6721002338795662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.615246096614979</v>
+        <v>0.6184542236023349</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6574918784958682</v>
+        <v>0.65587836278004</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7470350760306516</v>
+        <v>0.7515769079648176</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6916652724844182</v>
+        <v>0.6929333595630445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.71231373829213</v>
+        <v>0.7126739210751789</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.6231930045260123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6856143116654946</v>
+        <v>0.6856143116654945</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6941453032929078</v>
+        <v>0.6987731655998964</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5811570151036495</v>
+        <v>0.5802659533937392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6545128639923764</v>
+        <v>0.6522751070483432</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7767990390221567</v>
+        <v>0.7773807608627026</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6643891191627868</v>
+        <v>0.6627722091591954</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7138313363665655</v>
+        <v>0.7131385999561755</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.6657058933640749</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6152699962362186</v>
+        <v>0.6152699962362187</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.6515864427227434</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6204447618171456</v>
+        <v>0.6165495224823526</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5527577844697769</v>
+        <v>0.5496908305121101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6082441250536879</v>
+        <v>0.6112690624795273</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7162854007984731</v>
+        <v>0.7104484474306829</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6670013076398552</v>
+        <v>0.6781343137560208</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6855848546765528</v>
+        <v>0.6887792211115795</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.6499288181122704</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.684122699322683</v>
+        <v>0.6841226993226829</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6805851300921618</v>
+        <v>0.6787895357162306</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6211777425536901</v>
+        <v>0.6190779560374529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6615164887336852</v>
+        <v>0.6619277364226757</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7410385179236865</v>
+        <v>0.73873723809911</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6805339985384284</v>
+        <v>0.6767067340654598</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7048655118146656</v>
+        <v>0.7060676769483371</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7218255615619712</v>
+        <v>0.7218255615619713</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.6847960716176493</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.699453291936586</v>
+        <v>0.6994532919365861</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6683372663149874</v>
+        <v>0.673313981681916</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6564903105886395</v>
+        <v>0.6548017987971112</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6748649678695855</v>
+        <v>0.6748208587670728</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7624487577895084</v>
+        <v>0.7620731486929979</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.715044521257596</v>
+        <v>0.7132636204982511</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7242532839034815</v>
+        <v>0.7247438321779237</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7645110158263835</v>
+        <v>0.7645110158263837</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.75125175532356</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.754057322927248</v>
+        <v>0.7540573229272479</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6616425382855811</v>
+        <v>0.6477450030674468</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7196091996158662</v>
+        <v>0.7186260438747113</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7183297235069565</v>
+        <v>0.7234888583616648</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.84438408489274</v>
+        <v>0.8478010758735545</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.782647479880864</v>
+        <v>0.7809278708493763</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7812240905085441</v>
+        <v>0.7842406026420494</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.6759315629044939</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.694498213872801</v>
+        <v>0.6944982138728011</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6963970394561296</v>
+        <v>0.6973489870306132</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6627116148361172</v>
+        <v>0.662262655462576</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6846426851194034</v>
+        <v>0.6828194553367344</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7296509814097957</v>
+        <v>0.7307032201794897</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6913214467289603</v>
+        <v>0.6888018454599947</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7053131961407477</v>
+        <v>0.7054183909417391</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>348079</v>
+        <v>353147</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>283301</v>
+        <v>284778</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>648225</v>
+        <v>646634</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>392521</v>
+        <v>394907</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>318490</v>
+        <v>319074</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>702274</v>
+        <v>702629</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>321254</v>
+        <v>323396</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>228448</v>
+        <v>228098</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>560196</v>
+        <v>558280</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>359506</v>
+        <v>359776</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>261166</v>
+        <v>260530</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>610966</v>
+        <v>610373</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>270463</v>
+        <v>268765</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>93681</v>
+        <v>93162</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>368230</v>
+        <v>370061</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>312242</v>
+        <v>309697</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>113043</v>
+        <v>114930</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>415052</v>
+        <v>416986</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>703204</v>
+        <v>701348</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>498009</v>
+        <v>496325</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1213850</v>
+        <v>1214605</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>765666</v>
+        <v>763288</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>545596</v>
+        <v>542527</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1293394</v>
+        <v>1295600</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>312595</v>
+        <v>314922</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>468676</v>
+        <v>467470</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>797441</v>
+        <v>797389</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>356613</v>
+        <v>356437</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>510478</v>
+        <v>509207</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>855800</v>
+        <v>856380</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>128391</v>
+        <v>125694</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>520303</v>
+        <v>519593</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>658769</v>
+        <v>663501</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>163852</v>
+        <v>164515</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>565882</v>
+        <v>564639</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>716449</v>
+        <v>719215</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2172176</v>
+        <v>2175145</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2161569</v>
+        <v>2160105</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4368614</v>
+        <v>4356980</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2275900</v>
+        <v>2279182</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2254886</v>
+        <v>2246668</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4500510</v>
+        <v>4501181</v>
       </c>
     </row>
     <row r="32">
